--- a/biology/Zoologie/Hemiechinus_auritus/Hemiechinus_auritus.xlsx
+++ b/biology/Zoologie/Hemiechinus_auritus/Hemiechinus_auritus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemiechinus auritus est une espèce de mammifères érinaceomorphes de la famille Erinaceidae reconnaissable, comme l'autre espèce du même genre, à des pavillons auditifs plus développés que chez le hérisson commun. On les appelle en français « Hérisson à grandes oreilles » comme toutes les espèces de ce genre[1] ou « Hérisson oreillard »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiechinus auritus est une espèce de mammifères érinaceomorphes de la famille Erinaceidae reconnaissable, comme l'autre espèce du même genre, à des pavillons auditifs plus développés que chez le hérisson commun. On les appelle en français « Hérisson à grandes oreilles » comme toutes les espèces de ce genre ou « Hérisson oreillard ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon MSW :
 sous-espèce Hemiechinus auritus aegyptius
@@ -546,11 +560,48 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hemiechinus auritus a une aire de répartition mondiale qui s'étend de la région de la Méditerranée orientale, à travers l'Asie du Sud-Ouest jusqu'à l'Ouest du Pakistan au Sud ; et de l'Est de l'Ukraine à travers la Mongolie jusqu'à la Chine.
-Présence certaine
-Afghanistan
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiechinus auritus a une aire de répartition mondiale qui s'étend de la région de la Méditerranée orientale, à travers l'Asie du Sud-Ouest jusqu'à l'Ouest du Pakistan au Sud ; et de l'Est de l'Ukraine à travers la Mongolie jusqu'à la Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Présence certaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Afghanistan
 Chine
 Chypre
 Egypte
@@ -567,40 +618,76 @@
 Turquie
 Turkménistan
 Ukraine
-Ouzbékistan
-Présence incertaine
-Arménie
+Ouzbékistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Présence incertaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arménie
 Azerbaïdjan
 Géorgie
 Kazakhstan</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hemiechinus_auritus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiechinus auritus habite différents types de steppes sèches, semi-désertiques et désertique. Il préfère les vallées fluviales sèches, les ravins, les brise-vent forestiers, les fossés d'irrigation abandonnés et les zones arbustives, et s'installe souvent dans des oasis et autour des établissements humains. Il évite les tugais et les hautes herbes.
 Cette espèce principalement solitaire et nocturne vit dans des terriers qu'elle creuse généralement elle-même, bien qu'elle occupe parfois des terriers abandonnés de tortues, de gerbilles, de renards et de loutres. Il hiberne en hiver et peut aussi estiver par temps chaud et sec. Il a une espérance de vie entre 2 et 3 ans.
@@ -608,40 +695,150 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hemiechinus_auritus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>L'Hérisson oreillard et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Informations sur l'évaluation
-Cette espèce a une grande taille de population et une large distribution. Aucun déclin de la taille de la population n'a été détecté et il n'y a pas de menaces majeures répandues connues. Par conséquent, cette espèce est évaluée comme Préoccupation mineure. Cependant, des recherches taxonomiques sont nécessaires et peuvent aboutir à la division de ce taxon en plusieurs espèces différentes ; dans ce cas, une réévaluation sera nécessaire.
-Population
-C'est une espèce répandue et commune dans la majeure partie de l'aire de répartition, bien que certaines populations marginales soient fragmentées et en déclin.
-Menaces
-Aucune menace n'est connue pour la majeure partie de l'aire de répartition.
-Mesures de conservation
-Il est présent dans un certain nombre d'aires protégées dans toute sa vaste aire de répartition. Aucune mesure de conservation spécifique n'est nécessaire pour cette espèce.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Informations sur l'évaluation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a une grande taille de population et une large distribution. Aucun déclin de la taille de la population n'a été détecté et il n'y a pas de menaces majeures répandues connues. Par conséquent, cette espèce est évaluée comme Préoccupation mineure. Cependant, des recherches taxonomiques sont nécessaires et peuvent aboutir à la division de ce taxon en plusieurs espèces différentes ; dans ce cas, une réévaluation sera nécessaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L'Hérisson oreillard et l'Homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce répandue et commune dans la majeure partie de l'aire de répartition, bien que certaines populations marginales soient fragmentées et en déclin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>L'Hérisson oreillard et l'Homme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune menace n'est connue pour la majeure partie de l'aire de répartition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiechinus_auritus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L'Hérisson oreillard et l'Homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mesures de conservation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans un certain nombre d'aires protégées dans toute sa vaste aire de répartition. Aucune mesure de conservation spécifique n'est nécessaire pour cette espèce.
 </t>
         </is>
       </c>
